--- a/DATA_goal/Junction_Flooding_123.xlsx
+++ b/DATA_goal/Junction_Flooding_123.xlsx
@@ -655,103 +655,103 @@
         <v>41555.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.05</v>
+        <v>1.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>34.17</v>
+        <v>3.42</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>26.49</v>
+        <v>2.65</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>38.35</v>
+        <v>3.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>183.76</v>
+        <v>18.38</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>34.84</v>
+        <v>3.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>22.6</v>
+        <v>2.26</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.17</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>19.64</v>
+        <v>1.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>34.4</v>
+        <v>3.44</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>14.49</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41555.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>1.69</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>30.17</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>42.02</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>16.87</v>
-      </c>
       <c r="J3" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.04</v>
+        <v>1.2</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>158.63</v>
+        <v>15.86</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.52</v>
+        <v>3.05</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.11</v>
+        <v>2.01</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.53</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>38.55</v>
+        <v>3.86</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41555.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.21</v>
+        <v>0.22</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.15</v>
+        <v>0.31</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.09</v>
+        <v>2.71</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.35</v>
+        <v>1.33</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41555.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>48.46</v>
+        <v>4.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>39.5</v>
+        <v>3.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.49</v>
+        <v>1.75</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>63.11</v>
+        <v>6.31</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.53</v>
+        <v>2.05</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.78</v>
+        <v>2.48</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>258.19</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>48.66</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>17.15</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>31.37</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>14.22</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>20.43</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>57.19</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.039999999999999</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41555.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I6" s="4" t="n">
         <v>0.59</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.93</v>
-      </c>
       <c r="J6" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>3.41</v>
+        <v>0.34</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>51.11</v>
+        <v>5.11</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>11.05</v>
+        <v>1.11</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>7.3</v>
+        <v>0.73</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.13</v>
+        <v>0.31</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41555.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12.53</v>
+        <v>1.25</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>61.33</v>
+        <v>6.13</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>4.16</v>
+        <v>0.42</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.68</v>
+        <v>0.37</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>16.76</v>
+        <v>1.68</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41555.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>35.52</v>
+        <v>3.55</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>29.03</v>
+        <v>2.9</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>46.53</v>
+        <v>4.65</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>15.08</v>
+        <v>1.51</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>187.23</v>
+        <v>18.72</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>35.65</v>
+        <v>3.57</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>23.98</v>
+        <v>2.4</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.6</v>
+        <v>1.26</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>42.13</v>
+        <v>4.21</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41555.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>32.6</v>
+        <v>3.26</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.65</v>
+        <v>2.67</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>46.22</v>
+        <v>4.62</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.15</v>
+        <v>1.81</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.85</v>
+        <v>1.38</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.73</v>
+        <v>1.17</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>171.23</v>
+        <v>17.12</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>32.83</v>
+        <v>3.28</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>22.09</v>
+        <v>2.21</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.46</v>
+        <v>2.25</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>42.1</v>
+        <v>4.21</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41555.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>35.74</v>
+        <v>3.57</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>29.28</v>
+        <v>2.93</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>50.3</v>
+        <v>5.03</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.89</v>
+        <v>1.99</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.15</v>
+        <v>1.31</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.86</v>
+        <v>1.29</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>188.39</v>
+        <v>18.84</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>35.96</v>
+        <v>3.6</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>24.23</v>
+        <v>2.42</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>45.72</v>
+        <v>4.57</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_123.xlsx
+++ b/DATA_goal/Junction_Flooding_123.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -463,8 +463,8 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41555.34027777778</v>
+        <v>44804.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.06</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.42</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.65</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.84</v>
+        <v>0.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.94</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.79</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.18</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.41</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.35</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.48</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>18.38</v>
+        <v>4.89</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.48</v>
+        <v>0.96</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.16</v>
+        <v>0.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.26</v>
+        <v>0.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.14</v>
+        <v>0.46</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.96</v>
+        <v>0.76</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.02</v>
+        <v>0.19</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.1</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.45</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.44</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.62</v>
+        <v>0.24</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.45</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41555.34722222222</v>
+        <v>44804.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.02</v>
+        <v>2.16</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.77</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.2</v>
+        <v>2.65</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.69</v>
+        <v>1.16</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.06</v>
+        <v>0.85</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.91</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.86</v>
+        <v>11.24</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.01</v>
+        <v>0.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.01</v>
+        <v>1.44</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.82</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.05</v>
+        <v>1.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.58</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.63</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.86</v>
+        <v>2.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41555.35416666666</v>
+        <v>44804.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.29</v>
+        <v>1.31</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.62</v>
+        <v>2.8</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.44</v>
+        <v>2.37</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.4</v>
+        <v>3.82</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.35</v>
+        <v>1.54</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.7</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.08</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.25</v>
+        <v>1.15</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.19</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.31</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.83</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.71</v>
+        <v>14.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.67</v>
+        <v>2.81</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.92</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.42</v>
+        <v>1.89</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.21</v>
+        <v>1.03</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.63</v>
+        <v>1.97</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.79</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.79</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.2</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.33</v>
+        <v>3.44</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41555.36111111111</v>
+        <v>44804.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.85</v>
+        <v>4.79</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.31</v>
+        <v>6.57</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>1.2</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>1.94</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>25.57</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="X5" s="4" t="n">
         <v>1.74</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.71</v>
-      </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>2.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.72</v>
+        <v>5.94</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41555.36805555555</v>
+        <v>44804.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.49</v>
+        <v>20.77</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.34</v>
+        <v>15.68</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.83</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.06</v>
+        <v>44.8</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.83</v>
+        <v>37.36</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.38</v>
+        <v>16.14</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.09</v>
+        <v>63.97</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.59</v>
+        <v>24.82</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.26</v>
+        <v>11.24</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.36</v>
+        <v>16.92</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.43</v>
+        <v>18.08</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.45</v>
+        <v>19.03</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.12</v>
+        <v>5.18</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.38</v>
+        <v>16.07</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.55</v>
+        <v>23.11</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.34</v>
+        <v>13.37</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>5.11</v>
+        <v>238.62</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.11</v>
+        <v>45.04</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.35</v>
+        <v>14.8</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.73</v>
+        <v>30.5</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.37</v>
+        <v>16.22</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.08</v>
+        <v>2.12</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.96</v>
+        <v>31.49</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.31</v>
+        <v>12.92</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.29</v>
+        <v>11.96</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.34</v>
+        <v>13.47</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.45</v>
+        <v>19.03</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.96</v>
+        <v>57.85</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.19</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41555.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41555.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41555.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41555.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41555.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>42.01</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>34.49</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>58.86</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.45</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>222.73</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>42.27</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>28.51</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>28.66</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>53.48</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.44</v>
+        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_123.xlsx
+++ b/DATA_goal/Junction_Flooding_123.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -463,8 +463,8 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44804.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44804.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.65</v>
+        <v>26.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.7</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.11</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.24</v>
+        <v>112.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.63</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.85</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.68</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.34</v>
+        <v>23.37</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.42</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44804.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.8</v>
+        <v>27.99</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.37</v>
+        <v>23.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.82</v>
+        <v>38.24</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.86</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.44</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.35</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.69</v>
+        <v>146.94</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.81</v>
+        <v>28.09</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.95</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.85</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.02</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.44</v>
+        <v>34.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44804.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.24</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.79</v>
+        <v>47.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.57</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.65</v>
+        <v>26.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.47</v>
+        <v>24.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>25.57</v>
+        <v>255.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.81</v>
+        <v>48.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.81</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.26</v>
+        <v>32.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.29</v>
+        <v>32.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.37</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.94</v>
+        <v>59.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_123.xlsx
+++ b/DATA_goal/Junction_Flooding_123.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>10.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.06</v>
+        <v>8.061</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.59</v>
+        <v>21.592</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.61</v>
+        <v>18.615</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.7</v>
+        <v>7.696</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>26.51</v>
+        <v>26.512</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.64</v>
+        <v>11.644</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.37</v>
+        <v>5.374</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.44</v>
+        <v>2.438</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.7</v>
+        <v>7.699</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.11</v>
+        <v>11.105</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.4</v>
+        <v>6.402</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.45</v>
+        <v>112.448</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.63</v>
+        <v>21.627</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.01</v>
+        <v>7.005</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.43</v>
+        <v>14.432</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.234999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.06</v>
+        <v>1.058</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.85</v>
+        <v>14.855</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.82</v>
+        <v>5.816</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.68</v>
+        <v>6.682</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.26</v>
+        <v>6.257</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>9.394</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>23.37</v>
+        <v>23.365</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.42</v>
+        <v>4.422</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.798999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -866,19 +866,19 @@
         <v>13.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.031</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.678</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.99</v>
+        <v>27.986</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>23.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.029</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>38.24</v>
@@ -887,49 +887,49 @@
         <v>15.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.01</v>
+        <v>7.014</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.77</v>
+        <v>10.765</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.86</v>
+        <v>11.859</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.21</v>
+        <v>3.215</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.01</v>
+        <v>10.005</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.44</v>
+        <v>14.436</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.35</v>
+        <v>8.349</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.23</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>146.94</v>
+        <v>146.937</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.09</v>
+        <v>28.094</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>9.17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.95</v>
+        <v>18.946</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.34</v>
+        <v>10.339</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.34</v>
@@ -938,28 +938,28 @@
         <v>19.71</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.85</v>
+        <v>7.853</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.94</v>
+        <v>7.938</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.02</v>
+        <v>12.015</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>34.36</v>
+        <v>34.364</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.54</v>
+        <v>5.536</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.5</v>
+        <v>11.502</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>19.8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44804.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.62</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_123.xlsx
+++ b/DATA_goal/Junction_Flooding_123.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -451,26 +451,26 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,16 +967,16 @@
         <v>44804.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.24</v>
+        <v>22.236</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.8</v>
+        <v>16.805</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.9</v>
+        <v>47.904</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>40</v>
@@ -985,70 +985,70 @@
         <v>17.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.73999999999999</v>
+        <v>65.745</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.51</v>
+        <v>26.505</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12</v>
+        <v>12.004</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.12</v>
+        <v>18.125</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.37</v>
+        <v>19.368</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.34</v>
+        <v>20.338</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.18</v>
+        <v>17.178</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.69</v>
+        <v>24.692</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.29</v>
+        <v>14.292</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.493</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.526</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.75</v>
+        <v>255.745</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>48.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.81</v>
+        <v>15.809</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>32.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.37</v>
+        <v>17.374</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.27</v>
+        <v>2.272</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.95</v>
+        <v>32.945</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>13.78</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.87</v>
+        <v>12.873</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.38</v>
+        <v>14.379</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>20.37</v>
@@ -1057,13 +1057,117 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.38</v>
+        <v>59.382</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.25</v>
+        <v>9.254</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.8</v>
+        <v>19.797</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44804.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>20.77</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>37.36</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>63.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.07</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.37</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>238.62</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>45.04</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>31.49</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>13.47</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>57.85</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>18.53</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_123.xlsx
+++ b/DATA_goal/Junction_Flooding_123.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -451,26 +451,26 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,16 +967,16 @@
         <v>44804.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.236</v>
+        <v>22.24</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.805</v>
+        <v>16.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.918</v>
+        <v>0.92</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.904</v>
+        <v>47.9</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>40</v>
@@ -985,70 +985,70 @@
         <v>17.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.745</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.505</v>
+        <v>26.51</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.004</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.125</v>
+        <v>18.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.368</v>
+        <v>19.37</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.338</v>
+        <v>20.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.528</v>
+        <v>5.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.178</v>
+        <v>17.18</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.692</v>
+        <v>24.69</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.292</v>
+        <v>14.29</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.493</v>
+        <v>0.49</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.526</v>
+        <v>0.53</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>255.745</v>
+        <v>255.75</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>48.11</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.809</v>
+        <v>15.81</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>32.56</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.374</v>
+        <v>17.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.272</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.945</v>
+        <v>32.95</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>13.78</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.873</v>
+        <v>12.87</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.379</v>
+        <v>14.38</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>20.37</v>
@@ -1057,117 +1057,13 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>59.382</v>
+        <v>59.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.254</v>
+        <v>9.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.797</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44804.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>37.36</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>63.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>24.82</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.08</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.37</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>238.62</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>45.04</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>31.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>57.85</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>18.53</v>
+        <v>19.8</v>
       </c>
     </row>
   </sheetData>
